--- a/data/sales.xlsx
+++ b/data/sales.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,12 +482,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1E3412E7-DC23-4293-8866-E4B580A27E1B</t>
+          <t>3399541C-60E4-4C7E-A106-1DEC04C42D30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HYU101</t>
+          <t>MAH104</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45686.5909375</v>
+        <v>45713.59510416666</v>
       </c>
     </row>
     <row r="3">
@@ -512,12 +512,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>40C7D576-6A9A-4558-8E59-F39760D7531B</t>
+          <t>1435503D-2763-44EA-8EE9-C1C8EDC556BC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HYU101</t>
+          <t>MAR109</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45766.56915509259</v>
+        <v>45663.74355324074</v>
       </c>
     </row>
     <row r="4">
@@ -542,12 +542,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DAC6A4FD-952B-4404-A53C-46C807B880B0</t>
+          <t>FD84C8B1-00C0-4005-B94E-CB123B4B26F5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FOR108</t>
+          <t>TOY103</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45755.71581018518</v>
+        <v>45758.68761574074</v>
       </c>
     </row>
     <row r="5">
@@ -572,12 +572,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>890F99BA-0A64-483F-95B1-CF163C355172</t>
+          <t>75DE4879-925F-430B-B03C-B34C51A0A539</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HON107</t>
+          <t>BMW102</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45694.6078587963</v>
+        <v>45734.46260416666</v>
       </c>
     </row>
     <row r="6">
@@ -602,12 +602,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5F33D09B-C9F7-4E31-9B82-538D5E442A33</t>
+          <t>77B23DBF-D020-493A-AC55-8161AEA035D3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HON107</t>
+          <t>TAT106</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45732.70020833334</v>
+        <v>45683.71097222222</v>
       </c>
     </row>
     <row r="7">
@@ -632,12 +632,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ABD2F913-5F37-4DC9-B97D-441E1D37C837</t>
+          <t>A1D4538F-C5B4-4F86-8C5F-9AC4B01C0D99</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TAT106</t>
+          <t>MAR109</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45727.45733796297</v>
+        <v>45779.428125</v>
       </c>
     </row>
     <row r="8">
@@ -662,12 +662,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ECB1B0DE-BECF-40EB-80B1-9D88F6386B2D</t>
+          <t>1DB67510-AD35-4DDD-AA89-AC96EEC26DDC</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HYU101</t>
+          <t>MAH104</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45803.7353125</v>
+        <v>45807.71866898148</v>
       </c>
     </row>
     <row r="9">
@@ -692,12 +692,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C0EE1D43-BC08-48DD-BA16-1131C7DCA946</t>
+          <t>55323C0C-C991-4E2B-B249-C5039352C717</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FOR108</t>
+          <t>HON107</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45785.56923611111</v>
+        <v>45799.72204861111</v>
       </c>
     </row>
     <row r="10">
@@ -722,7 +722,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>D034E4F5-4C00-4AC9-BEC6-969BA3D64E1A</t>
+          <t>2E59616C-4807-4771-8B73-A4AC6F487F1E</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45742.64879629629</v>
+        <v>45680.38193287037</v>
       </c>
     </row>
     <row r="11">
@@ -752,12 +752,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FD205189-CCEF-4C4D-AEE6-5B9738052131</t>
+          <t>C183551C-DDE9-4758-B9B7-FDC17E964E12</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HYU101</t>
+          <t>MER105</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45699.41247685185</v>
+        <v>45672.67266203704</v>
       </c>
     </row>
     <row r="12">
@@ -782,12 +782,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8E33820F-9BB4-402E-A018-DFFB06FDFDF7</t>
+          <t>5A3F306A-9043-405D-A509-0179CA88DA7E</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BMW102</t>
+          <t>HYU101</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45757.56509259259</v>
+        <v>45801.55597222222</v>
       </c>
     </row>
     <row r="13">
@@ -812,7 +812,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>235167E6-133C-4D41-B9EC-BFDF6E5E6BBC</t>
+          <t>9635C27A-5E74-42AF-A15A-D1E7677D8F75</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45698.45465277778</v>
+        <v>45759.42482638889</v>
       </c>
     </row>
     <row r="14">
@@ -842,12 +842,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BF2B092A-67FB-482E-8271-B231A34BE13C</t>
+          <t>F4D299B7-E898-4CC0-BB43-B0270D250DAF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MAH104</t>
+          <t>MER105</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45691.61565972222</v>
+        <v>45784.61175925926</v>
       </c>
     </row>
     <row r="15">
@@ -872,12 +872,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>780CF7BA-7783-40D2-8CAD-2F0C1A097C16</t>
+          <t>7DCDD228-40BE-4039-B9F2-EED2704497E1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MER105</t>
+          <t>FOR108</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45674.39106481482</v>
+        <v>45718.52344907408</v>
       </c>
     </row>
     <row r="16">
@@ -902,12 +902,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6CF97BFF-5258-4980-812D-CDD8E749CF52</t>
+          <t>637A54FB-6A83-4C76-8DF0-FAD88B0C7E63</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MAR109</t>
+          <t>HYU101</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45779.49542824074</v>
+        <v>45694.4</v>
       </c>
     </row>
     <row r="17">
@@ -932,12 +932,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>99B42E9F-A236-4C34-B98E-D87485790FE6</t>
+          <t>5ACFDEFC-070B-4BD0-97D8-8D6D1AA5E6A2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MAR109</t>
+          <t>HON107</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45733.55626157407</v>
+        <v>45666.44991898148</v>
       </c>
     </row>
     <row r="18">
@@ -962,12 +962,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A13926E1-B586-40E8-B431-782FDE4BC4AE</t>
+          <t>7943FA0E-BA47-4710-880A-606294BFC73D</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MAH104</t>
+          <t>MER105</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45744.50337962963</v>
+        <v>45674.58295138889</v>
       </c>
     </row>
     <row r="19">
@@ -992,12 +992,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3DC5D1D4-F924-4397-BAC8-74152C831B48</t>
+          <t>658DF915-E21B-4057-AB64-7A948ADEE559</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MER105</t>
+          <t>TAT106</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45774.49662037037</v>
+        <v>45760.42690972222</v>
       </c>
     </row>
     <row r="20">
@@ -1022,21 +1022,351 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4DCB6BE3-4950-442B-A2C5-594B2CE90A1E</t>
+          <t>F82E7F95-C5DD-470C-BD78-616874E1D889</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>MAR109</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>S_019</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>45700.56508101852</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>D_SNEHAMAH001</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>C_DEEPATIR001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>02CC8F43-A3DA-48B8-AE4C-DE9AAFA8350F</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>MAH104</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>S_019</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>45763.56398148148</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>S_020</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>45778.46548611111</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>D_BALAJITAT001</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>C_SANDEEPTIR001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>7878650D-C981-46A1-B5AD-8BD971B5273B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TAT106</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>S_021</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>45696.4675462963</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>D_DEEPAKMAR001</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>C_RAHULSAL001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>385E7458-D624-4B08-ADB7-159826CD8BF5</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>MAR109</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>S_022</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>45693.56962962963</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>D_POOJAMAR001</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>C_VIVEKTHA001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>FD52A531-5E2B-4F6A-BD6A-920F49BA8F34</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>MAR109</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>S_023</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>45682.70148148148</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>D_SANJAYHYU001</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>C_MEENAKAN001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CA1121F0-6D7E-40F9-9362-6D5D726DE29B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>HYU101</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>S_024</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>45726.60721064815</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>D_RAJESHHYU001</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>C_AMITABHERO001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>EA27201E-64A7-4625-987E-CDCA9CC1914B</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>HYU101</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>S_025</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>45768.67391203704</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>D_SANJAYHYU001</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>C_PREETIVEL001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>052A0B28-647F-4F28-BB69-1B19F435D8DC</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>HYU101</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>S_026</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>45793.73270833334</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>D_VIDYAMAR001</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>C_SANDEEPTIR001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>08E3F3BA-8377-4E49-9F71-2B50BCDE07F7</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>MAR109</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>S_027</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>45693.63803240741</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>D_SIVAKUMARMAH001</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>C_VIVEKTHA001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>22574029-F597-4F35-B4E8-B16D7C23A86A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>MAH104</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>S_028</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>45710.41773148148</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>D_BALAJITAT001</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>C_SWETHACOI001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>282C509F-537C-4CFD-8DC5-E8EDC5D76FCA</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TAT106</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>S_029</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>45703.60927083333</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>D_KARTHIKFOR001</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>C_DEEPATIR001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1F2615B2-C7BB-4A58-A884-B19D53F6A597</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>FOR108</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>S_030</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>45743.59858796297</v>
       </c>
     </row>
   </sheetData>
